--- a/Documentation/Sprint_info/Sprint3.xlsx
+++ b/Documentation/Sprint_info/Sprint3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -442,6 +442,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,21 +470,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,17 +488,7 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -523,121 +513,6 @@
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1948,8 +1823,8 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2265,21 +2140,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
@@ -2288,10 +2163,10 @@
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="14" t="s">
         <v>7</v>
       </c>
@@ -2300,10 +2175,10 @@
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
@@ -2312,10 +2187,10 @@
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
@@ -2336,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,306 +2313,312 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="27">
         <v>8</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="19">
         <v>0</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19">
         <f>E5-SUM(G5:T5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26" t="s">
+    <row r="6" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="19">
         <v>2</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26">
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19">
         <f>E6-SUM(G6:T6)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
+    <row r="7" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="19">
         <v>4</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19">
         <f t="shared" ref="U7:U18" si="0">E7-SUM(G7:T7)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26" t="s">
+    <row r="8" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="19">
         <v>0</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26" t="s">
+    <row r="9" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="19">
         <v>1</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26" t="s">
+    <row r="10" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19">
         <v>2</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26">
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26" t="s">
+    <row r="11" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="19">
         <v>0</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26">
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="29">
         <v>5</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26">
+      <c r="D12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="19">
         <v>5</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26">
+      <c r="F12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="26" t="s">
+    <row r="13" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19">
         <v>1</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26">
+      <c r="F13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2756,7 +2637,9 @@
       <c r="E14" s="2">
         <v>3</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2771,14 +2654,14 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="26">
+      <c r="U14" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
@@ -2786,7 +2669,9 @@
       <c r="E15" s="2">
         <v>2</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2801,14 +2686,14 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="26">
+      <c r="U15" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="2" t="s">
         <v>56</v>
       </c>
@@ -2816,7 +2701,9 @@
       <c r="E16" s="2">
         <v>8</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2831,14 +2718,14 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="26">
+      <c r="U16" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="2" t="s">
         <v>57</v>
       </c>
@@ -2846,7 +2733,9 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2861,7 +2750,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="26">
+      <c r="U17" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2882,62 +2771,62 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="2">
-        <f>SUM(G5:G17)</f>
+        <f t="shared" ref="G18:T18" si="1">SUM(G5:G17)</f>
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <f>SUM(H5:H17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <f>SUM(I5:I17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18" s="2">
-        <f>SUM(J5:J17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <f>SUM(K5:K17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L18" s="2">
-        <f>SUM(L5:L17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M18" s="2">
-        <f>SUM(M5:M17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <f>SUM(N5:N17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <f>SUM(O5:O17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <f>SUM(P5:P17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <f>SUM(Q5:Q17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R18" s="2">
-        <f>SUM(R5:R17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <f>SUM(S5:S17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T18" s="2">
-        <f>SUM(T5:T17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U18" s="26">
+      <c r="U18" s="19">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -3025,59 +2914,59 @@
         <v>29</v>
       </c>
       <c r="G20" s="2">
-        <f>F20-SUM(G5:G17)</f>
+        <f t="shared" ref="G20:T20" si="2">F20-SUM(G5:G17)</f>
         <v>29</v>
       </c>
       <c r="H20" s="2">
-        <f>G20-SUM(H5:H17)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="I20" s="2">
-        <f>H20-SUM(I5:I17)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="J20" s="2">
-        <f>I20-SUM(J5:J17)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="K20" s="2">
-        <f>J20-SUM(K5:K17)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="L20" s="2">
-        <f>K20-SUM(L5:L17)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="M20" s="2">
-        <f>L20-SUM(M5:M17)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="N20" s="2">
-        <f>M20-SUM(N5:N17)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="O20" s="2">
-        <f>N20-SUM(O5:O17)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="P20" s="2">
-        <f>O20-SUM(P5:P17)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="Q20" s="2">
-        <f>P20-SUM(Q5:Q17)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="R20" s="2">
-        <f>Q20-SUM(R5:R17)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="S20" s="2">
-        <f>R20-SUM(S5:S17)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="T20" s="2">
-        <f>S20-SUM(T5:T17)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="U20" s="10"/>
@@ -3121,58 +3010,32 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
   </mergeCells>
-  <conditionalFormatting sqref="F14:F17">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+  <conditionalFormatting sqref="U5:U18">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F17">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U18">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F13">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>"To do"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations xWindow="491" yWindow="329" count="1">
+  <dataValidations xWindow="491" yWindow="329" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F17">
       <formula1>"To do, In progress, Done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D17">
+      <formula1>"Vanja Cvetković,Đuro Nenadović,Predrag Dimitrijević,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="491" yWindow="329" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a valid name" promptTitle="Names" prompt="Enter assignee">
-          <x14:formula1>
-            <xm:f>Roster!$A$3:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>D14:D17</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a valid name" promptTitle="Names" prompt="Enter assignee">
-          <x14:formula1>
-            <xm:f>'C:\Users\nevidjen\Documents\GitHub\MasterAudioTechnologyFunctions\Documentation\Sprint_info\[Sprint2.xlsx]Roster'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D5:D13</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
